--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -546,10 +546,10 @@
         <v>0.632575</v>
       </c>
       <c r="I2">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J2">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>18.21973525232222</v>
+        <v>22.95094044689167</v>
       </c>
       <c r="R2">
-        <v>163.9776172709</v>
+        <v>206.558464022025</v>
       </c>
       <c r="S2">
-        <v>0.02065996459936923</v>
+        <v>0.03511606792214858</v>
       </c>
       <c r="T2">
-        <v>0.02065996459936923</v>
+        <v>0.03511606792214857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.632575</v>
       </c>
       <c r="I3">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J3">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
         <v>26.35785845386667</v>
@@ -638,10 +638,10 @@
         <v>237.2207260848</v>
       </c>
       <c r="S3">
-        <v>0.02988805353264744</v>
+        <v>0.04032882007123658</v>
       </c>
       <c r="T3">
-        <v>0.02988805353264744</v>
+        <v>0.04032882007123657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.632575</v>
       </c>
       <c r="I4">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J4">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>3.165595213072222</v>
+        <v>3.983058812355555</v>
       </c>
       <c r="R4">
-        <v>28.49035691765</v>
+        <v>35.8475293112</v>
       </c>
       <c r="S4">
-        <v>0.003589573840249354</v>
+        <v>0.006094275923735978</v>
       </c>
       <c r="T4">
-        <v>0.003589573840249354</v>
+        <v>0.006094275923735977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.632575</v>
       </c>
       <c r="I5">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J5">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>2.591845892622222</v>
+        <v>2.821134087722223</v>
       </c>
       <c r="R5">
-        <v>23.3266130336</v>
+        <v>25.3902067895</v>
       </c>
       <c r="S5">
-        <v>0.0029389803774328</v>
+        <v>0.004316473935836441</v>
       </c>
       <c r="T5">
-        <v>0.0029389803774328</v>
+        <v>0.00431647393583644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.632575</v>
       </c>
       <c r="I6">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J6">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>3.568513648463889</v>
+        <v>2.285403719636111</v>
       </c>
       <c r="R6">
-        <v>32.116622836175</v>
+        <v>20.568633476725</v>
       </c>
       <c r="S6">
-        <v>0.004046456473083665</v>
+        <v>0.003496780118182123</v>
       </c>
       <c r="T6">
-        <v>0.004046456473083664</v>
+        <v>0.003496780118182122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I7">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J7">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>123.4721856290551</v>
+        <v>155.5347945497074</v>
       </c>
       <c r="R7">
-        <v>1111.249670661496</v>
+        <v>1399.813150947366</v>
       </c>
       <c r="S7">
-        <v>0.1400092234478485</v>
+        <v>0.2379758869708825</v>
       </c>
       <c r="T7">
-        <v>0.1400092234478485</v>
+        <v>0.2379758869708825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I8">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J8">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
         <v>178.6229243581013</v>
@@ -948,10 +948,10 @@
         <v>1607.606319222912</v>
       </c>
       <c r="S8">
-        <v>0.202546482853192</v>
+        <v>0.2733018613649624</v>
       </c>
       <c r="T8">
-        <v>0.2025464828531921</v>
+        <v>0.2733018613649624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I9">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J9">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>21.45272444203511</v>
+        <v>26.99254244036978</v>
       </c>
       <c r="R9">
-        <v>193.074519978316</v>
+        <v>242.932881963328</v>
       </c>
       <c r="S9">
-        <v>0.02432595871424521</v>
+        <v>0.0412999177929494</v>
       </c>
       <c r="T9">
-        <v>0.02432595871424521</v>
+        <v>0.0412999177929494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I10">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J10">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>17.56451851488711</v>
+        <v>19.11836736043111</v>
       </c>
       <c r="R10">
-        <v>158.080666633984</v>
+        <v>172.06530624388</v>
       </c>
       <c r="S10">
-        <v>0.01991699251921246</v>
+        <v>0.02925204256196013</v>
       </c>
       <c r="T10">
-        <v>0.01991699251921246</v>
+        <v>0.02925204256196014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I11">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J11">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>24.18323721618244</v>
+        <v>15.48780969648156</v>
       </c>
       <c r="R11">
-        <v>217.649134945642</v>
+        <v>139.390287268334</v>
       </c>
       <c r="S11">
-        <v>0.02742217808685214</v>
+        <v>0.02369711073607078</v>
       </c>
       <c r="T11">
-        <v>0.02742217808685214</v>
+        <v>0.02369711073607078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H12">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I12">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J12">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N12">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O12">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P12">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q12">
-        <v>49.39805648550488</v>
+        <v>30.79560327537</v>
       </c>
       <c r="R12">
-        <v>444.5825083695439</v>
+        <v>277.16042947833</v>
       </c>
       <c r="S12">
-        <v>0.05601410141994766</v>
+        <v>0.04711878795659091</v>
       </c>
       <c r="T12">
-        <v>0.05601410141994765</v>
+        <v>0.04711878795659091</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H13">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I13">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J13">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P13">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q13">
-        <v>71.46245336221867</v>
+        <v>35.36701051584</v>
       </c>
       <c r="R13">
-        <v>643.162080259968</v>
+        <v>318.30309464256</v>
       </c>
       <c r="S13">
-        <v>0.08103365587923865</v>
+        <v>0.05411326591829411</v>
       </c>
       <c r="T13">
-        <v>0.08103365587923865</v>
+        <v>0.05411326591829409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H14">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I14">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J14">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N14">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O14">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P14">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q14">
-        <v>8.58268514772489</v>
+        <v>5.344473760960001</v>
       </c>
       <c r="R14">
-        <v>77.24416632952399</v>
+        <v>48.10026384864</v>
       </c>
       <c r="S14">
-        <v>0.009732192529906711</v>
+        <v>0.008177307767945083</v>
       </c>
       <c r="T14">
-        <v>0.009732192529906711</v>
+        <v>0.008177307767945083</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H15">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I15">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J15">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N15">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O15">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P15">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q15">
-        <v>7.027113623352888</v>
+        <v>3.7854015766</v>
       </c>
       <c r="R15">
-        <v>63.24402261017599</v>
+        <v>34.0686141894</v>
       </c>
       <c r="S15">
-        <v>0.007968278171095369</v>
+        <v>0.005791850629567423</v>
       </c>
       <c r="T15">
-        <v>0.007968278171095368</v>
+        <v>0.005791850629567422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H16">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I16">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J16">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N16">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O16">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P16">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q16">
-        <v>9.675093316937556</v>
+        <v>3.06655783613</v>
       </c>
       <c r="R16">
-        <v>87.07583985243799</v>
+        <v>27.59902052517</v>
       </c>
       <c r="S16">
-        <v>0.01097091053494023</v>
+        <v>0.004691984344167575</v>
       </c>
       <c r="T16">
-        <v>0.01097091053494023</v>
+        <v>0.004691984344167574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H17">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I17">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J17">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N17">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O17">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P17">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q17">
-        <v>8.606097670929332</v>
+        <v>11.48299869065167</v>
       </c>
       <c r="R17">
-        <v>77.45487903836398</v>
+        <v>103.346988215865</v>
       </c>
       <c r="S17">
-        <v>0.00975874076970751</v>
+        <v>0.0175695528862513</v>
       </c>
       <c r="T17">
-        <v>0.009758740769707508</v>
+        <v>0.01756955288625129</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H18">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I18">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J18">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P18">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q18">
-        <v>12.450142722112</v>
+        <v>13.18757524618666</v>
       </c>
       <c r="R18">
-        <v>112.051284499008</v>
+        <v>118.68817721568</v>
       </c>
       <c r="S18">
-        <v>0.01411763147673313</v>
+        <v>0.02017763887040433</v>
       </c>
       <c r="T18">
-        <v>0.01411763147673313</v>
+        <v>0.02017763887040433</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H19">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I19">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J19">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N19">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O19">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P19">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q19">
-        <v>1.495269893499333</v>
+        <v>1.992835946435555</v>
       </c>
       <c r="R19">
-        <v>13.457429041494</v>
+        <v>17.93552351792</v>
       </c>
       <c r="S19">
-        <v>0.001695536331257141</v>
+        <v>0.003049137032735752</v>
       </c>
       <c r="T19">
-        <v>0.001695536331257141</v>
+        <v>0.003049137032735751</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H20">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I20">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J20">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N20">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O20">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P20">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q20">
-        <v>1.224259221717333</v>
+        <v>1.411492444522222</v>
       </c>
       <c r="R20">
-        <v>11.018332995456</v>
+        <v>12.7034320007</v>
       </c>
       <c r="S20">
-        <v>0.001388228304684485</v>
+        <v>0.00215965287645347</v>
       </c>
       <c r="T20">
-        <v>0.001388228304684485</v>
+        <v>0.00215965287645347</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H21">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I21">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J21">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N21">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O21">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P21">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q21">
-        <v>1.685588543050333</v>
+        <v>1.143451527876111</v>
       </c>
       <c r="R21">
-        <v>15.170296887453</v>
+        <v>10.291063750885</v>
       </c>
       <c r="S21">
-        <v>0.001911344986425293</v>
+        <v>0.001749537088098725</v>
       </c>
       <c r="T21">
-        <v>0.001911344986425293</v>
+        <v>0.001749537088098724</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H22">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I22">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J22">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N22">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O22">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P22">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q22">
-        <v>98.38691599242267</v>
+        <v>36.09430176279901</v>
       </c>
       <c r="R22">
-        <v>885.482243931804</v>
+        <v>324.848715865191</v>
       </c>
       <c r="S22">
-        <v>0.1115642007578288</v>
+        <v>0.05522605730418503</v>
       </c>
       <c r="T22">
-        <v>0.1115642007578288</v>
+        <v>0.05522605730418502</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H23">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I23">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J23">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>375.008064</v>
       </c>
       <c r="O23">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P23">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q23">
-        <v>142.332935661632</v>
+        <v>41.452266370368</v>
       </c>
       <c r="R23">
-        <v>1280.996420954688</v>
+        <v>373.070397333312</v>
       </c>
       <c r="S23">
-        <v>0.1613960560551405</v>
+        <v>0.06342400673110463</v>
       </c>
       <c r="T23">
-        <v>0.1613960560551405</v>
+        <v>0.06342400673110461</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H24">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I24">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J24">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N24">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O24">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P24">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q24">
-        <v>17.09427420219267</v>
+        <v>6.264045128992</v>
       </c>
       <c r="R24">
-        <v>153.848467819734</v>
+        <v>56.37640616092801</v>
       </c>
       <c r="S24">
-        <v>0.01938376683185876</v>
+        <v>0.009584297198020845</v>
       </c>
       <c r="T24">
-        <v>0.01938376683185876</v>
+        <v>0.009584297198020841</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H25">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I25">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J25">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N25">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O25">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P25">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q25">
-        <v>13.99601698769067</v>
+        <v>4.436718630820001</v>
       </c>
       <c r="R25">
-        <v>125.964152889216</v>
+        <v>39.93046767738001</v>
       </c>
       <c r="S25">
-        <v>0.01587054979083764</v>
+        <v>0.006788397763126862</v>
       </c>
       <c r="T25">
-        <v>0.01587054979083764</v>
+        <v>0.006788397763126861</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H26">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I26">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J26">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N26">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O26">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P26">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q26">
-        <v>19.27004139670367</v>
+        <v>3.594190473251001</v>
       </c>
       <c r="R26">
-        <v>173.430372570333</v>
+        <v>32.34771425925901</v>
       </c>
       <c r="S26">
-        <v>0.02185094171626532</v>
+        <v>0.005499288235089082</v>
       </c>
       <c r="T26">
-        <v>0.02185094171626532</v>
+        <v>0.005499288235089081</v>
       </c>
     </row>
   </sheetData>
